--- a/spreadsheets/Fizz.xlsx
+++ b/spreadsheets/Fizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66615770-ED8B-43E1-85FB-AFC98EB54B6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F1BB9-C864-4754-952C-D2CBABAB6C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="4725" yWindow="2925" windowWidth="16875" windowHeight="10523" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Corki</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
     <t>Fizz</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Plays for University of Waterloo. 1000 LP Mid Player</t>
   </si>
   <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
     <t>If she takes bone plating you are doomed. Try to get cs without eating too much harass and use ult to try to force her ult. Then try to all in with jungle when your ult is back up since it reveals her.</t>
   </si>
   <si>
@@ -293,12 +287,6 @@
   </si>
   <si>
     <t>Really weak after last set of nerfs. You outtrade starting at level 3 and if you hit ulti he's pretty doomed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
-  </si>
-  <si>
-    <t>Not sure after changes</t>
   </si>
   <si>
     <t xml:space="preserve">Outshoves you and iimpossible to kill through his ulti. He can't really kill you but will outpressure you hard. </t>
@@ -457,10 +445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -883,85 +871,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,28 +965,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1014,20 +1002,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.3984375" customWidth="1"/>
     <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,506 +1026,496 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>123</v>
+      <c r="B2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>85</v>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>86</v>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>53</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>54</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>55</v>
       </c>
       <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>57</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>58</v>
       </c>
       <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>59</v>
       </c>
       <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>61</v>
       </c>
       <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
+      <c r="C43" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheets/Fizz.xlsx
+++ b/spreadsheets/Fizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F1BB9-C864-4754-952C-D2CBABAB6C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5418F9C-D0C1-4CA6-9FBF-27AF9D466A1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="2925" windowWidth="16875" windowHeight="10523" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -76,24 +76,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>For each champion, please enter a value for difficulty (1 - 10).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
-  </si>
-  <si>
-    <t>10 should indicate an unplayable counter.</t>
-  </si>
-  <si>
-    <t>Feel free to use non integers.</t>
-  </si>
-  <si>
-    <t>For each champion, if you have any comments about the matchup, enter it into the C column.</t>
-  </si>
-  <si>
-    <t>Please aim for comments to be between 1-3 sentences long.</t>
-  </si>
-  <si>
     <t>Sample of what it will look like on the website</t>
   </si>
   <si>
@@ -244,16 +226,10 @@
     <t>If you have another link, add it to the bottom (for example, Facebook)</t>
   </si>
   <si>
-    <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
-  </si>
-  <si>
     <t>Veigar</t>
   </si>
   <si>
     <t>BarbecueRibs</t>
-  </si>
-  <si>
-    <t>Tbd</t>
   </si>
   <si>
     <t>https://na.op.gg/summoner/userName=barbecueribs</t>
@@ -871,85 +847,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,28 +938,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1002,20 +975,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,496 +999,482 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C46" s="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheets/Fizz.xlsx
+++ b/spreadsheets/Fizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5418F9C-D0C1-4CA6-9FBF-27AF9D466A1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E36AC1-30DE-42BA-BC8F-EF5C6493561F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
@@ -848,7 +848,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,27 +931,29 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
